--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lif</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lif</t>
-  </si>
-  <si>
-    <t>Il6st</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.466302</v>
+        <v>0.8189326666666666</v>
       </c>
       <c r="H2">
-        <v>1.398906</v>
+        <v>2.456798</v>
       </c>
       <c r="I2">
-        <v>0.2619236636876387</v>
+        <v>0.9129640027751631</v>
       </c>
       <c r="J2">
-        <v>0.2619236636876388</v>
+        <v>0.9129640027751632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N2">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O2">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P2">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q2">
-        <v>17.119552208654</v>
+        <v>67.50738797872422</v>
       </c>
       <c r="R2">
-        <v>154.075969877886</v>
+        <v>607.566491808518</v>
       </c>
       <c r="S2">
-        <v>0.05453232293895547</v>
+        <v>0.3350584274934291</v>
       </c>
       <c r="T2">
-        <v>0.05453232293895547</v>
+        <v>0.3350584274934291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.466302</v>
+        <v>0.8189326666666666</v>
       </c>
       <c r="H3">
-        <v>1.398906</v>
+        <v>2.456798</v>
       </c>
       <c r="I3">
-        <v>0.2619236636876387</v>
+        <v>0.9129640027751631</v>
       </c>
       <c r="J3">
-        <v>0.2619236636876388</v>
+        <v>0.9129640027751632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P3">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q3">
-        <v>41.443560313594</v>
+        <v>72.78434440292422</v>
       </c>
       <c r="R3">
-        <v>372.992042822346</v>
+        <v>655.059099626318</v>
       </c>
       <c r="S3">
-        <v>0.1320135940015149</v>
+        <v>0.3612494678281704</v>
       </c>
       <c r="T3">
-        <v>0.1320135940015149</v>
+        <v>0.3612494678281704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.466302</v>
+        <v>0.8189326666666666</v>
       </c>
       <c r="H4">
-        <v>1.398906</v>
+        <v>2.456798</v>
       </c>
       <c r="I4">
-        <v>0.2619236636876387</v>
+        <v>0.9129640027751631</v>
       </c>
       <c r="J4">
-        <v>0.2619236636876388</v>
+        <v>0.9129640027751632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N4">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O4">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P4">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q4">
-        <v>17.029434995002</v>
+        <v>35.16074110326378</v>
       </c>
       <c r="R4">
-        <v>153.264914955018</v>
+        <v>316.446669929374</v>
       </c>
       <c r="S4">
-        <v>0.05424526513876688</v>
+        <v>0.1745127900264195</v>
       </c>
       <c r="T4">
-        <v>0.05424526513876689</v>
+        <v>0.1745127900264195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.466302</v>
+        <v>0.8189326666666666</v>
       </c>
       <c r="H5">
-        <v>1.398906</v>
+        <v>2.456798</v>
       </c>
       <c r="I5">
-        <v>0.2619236636876387</v>
+        <v>0.9129640027751631</v>
       </c>
       <c r="J5">
-        <v>0.2619236636876388</v>
+        <v>0.9129640027751632</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N5">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q5">
-        <v>6.63420523271</v>
+        <v>8.491012452807334</v>
       </c>
       <c r="R5">
-        <v>59.70784709439</v>
+        <v>76.419112075266</v>
       </c>
       <c r="S5">
-        <v>0.0211324816084015</v>
+        <v>0.04214331742714414</v>
       </c>
       <c r="T5">
-        <v>0.0211324816084015</v>
+        <v>0.04214331742714413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.8189326666666665</v>
+        <v>0.07807166666666666</v>
       </c>
       <c r="H6">
-        <v>2.456798</v>
+        <v>0.234215</v>
       </c>
       <c r="I6">
-        <v>0.4599976932692142</v>
+        <v>0.08703599722483689</v>
       </c>
       <c r="J6">
-        <v>0.4599976932692142</v>
+        <v>0.0870359972248369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N6">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O6">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P6">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q6">
-        <v>30.06583832445978</v>
+        <v>6.435711391590555</v>
       </c>
       <c r="R6">
-        <v>270.592544920138</v>
+        <v>57.921402524315</v>
       </c>
       <c r="S6">
-        <v>0.09577119687225583</v>
+        <v>0.03194227184952669</v>
       </c>
       <c r="T6">
-        <v>0.09577119687225581</v>
+        <v>0.03194227184952669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.8189326666666665</v>
+        <v>0.07807166666666666</v>
       </c>
       <c r="H7">
-        <v>2.456798</v>
+        <v>0.234215</v>
       </c>
       <c r="I7">
-        <v>0.4599976932692142</v>
+        <v>0.08703599722483689</v>
       </c>
       <c r="J7">
-        <v>0.4599976932692142</v>
+        <v>0.0870359972248369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>266.631241</v>
       </c>
       <c r="O7">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P7">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q7">
-        <v>72.78434440292421</v>
+        <v>6.938781790090554</v>
       </c>
       <c r="R7">
-        <v>655.0590996263179</v>
+        <v>62.449036110815</v>
       </c>
       <c r="S7">
-        <v>0.2318459808705758</v>
+        <v>0.03443915377144353</v>
       </c>
       <c r="T7">
-        <v>0.2318459808705758</v>
+        <v>0.03443915377144353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.8189326666666665</v>
+        <v>0.07807166666666666</v>
       </c>
       <c r="H8">
-        <v>2.456798</v>
+        <v>0.234215</v>
       </c>
       <c r="I8">
-        <v>0.4599976932692142</v>
+        <v>0.08703599722483689</v>
       </c>
       <c r="J8">
-        <v>0.4599976932692142</v>
+        <v>0.0870359972248369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N8">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O8">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P8">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q8">
-        <v>29.90757194325488</v>
+        <v>3.351994334699445</v>
       </c>
       <c r="R8">
-        <v>269.168147489294</v>
+        <v>30.167949012295</v>
       </c>
       <c r="S8">
-        <v>0.0952670579026698</v>
+        <v>0.01663690426157863</v>
       </c>
       <c r="T8">
-        <v>0.09526705790266979</v>
+        <v>0.01663690426157863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8189326666666665</v>
+        <v>0.07807166666666666</v>
       </c>
       <c r="H9">
-        <v>2.456798</v>
+        <v>0.234215</v>
       </c>
       <c r="I9">
-        <v>0.4599976932692142</v>
+        <v>0.08703599722483689</v>
       </c>
       <c r="J9">
-        <v>0.4599976932692142</v>
+        <v>0.0870359972248369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,524 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N9">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q9">
-        <v>11.65117752537444</v>
+        <v>0.8094774098783334</v>
       </c>
       <c r="R9">
-        <v>104.86059772837</v>
+        <v>7.285296688905</v>
       </c>
       <c r="S9">
-        <v>0.0371134576237128</v>
+        <v>0.004017667342288036</v>
       </c>
       <c r="T9">
-        <v>0.0371134576237128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1290173333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.387052</v>
-      </c>
-      <c r="I10">
-        <v>0.07246954254083401</v>
-      </c>
-      <c r="J10">
-        <v>0.07246954254083401</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>36.71344366666667</v>
-      </c>
-      <c r="N10">
-        <v>110.140331</v>
-      </c>
-      <c r="O10">
-        <v>0.2081992981130139</v>
-      </c>
-      <c r="P10">
-        <v>0.2081992981130138</v>
-      </c>
-      <c r="Q10">
-        <v>4.73667059935689</v>
-      </c>
-      <c r="R10">
-        <v>42.630035394212</v>
-      </c>
-      <c r="S10">
-        <v>0.01508810789157284</v>
-      </c>
-      <c r="T10">
-        <v>0.01508810789157284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.1290173333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.387052</v>
-      </c>
-      <c r="I11">
-        <v>0.07246954254083401</v>
-      </c>
-      <c r="J11">
-        <v>0.07246954254083401</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>88.87708033333332</v>
-      </c>
-      <c r="N11">
-        <v>266.631241</v>
-      </c>
-      <c r="O11">
-        <v>0.5040155293450301</v>
-      </c>
-      <c r="P11">
-        <v>0.50401552934503</v>
-      </c>
-      <c r="Q11">
-        <v>11.46668389905911</v>
-      </c>
-      <c r="R11">
-        <v>103.200155091532</v>
-      </c>
-      <c r="S11">
-        <v>0.03652577484511064</v>
-      </c>
-      <c r="T11">
-        <v>0.03652577484511062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.1290173333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.387052</v>
-      </c>
-      <c r="I12">
-        <v>0.07246954254083401</v>
-      </c>
-      <c r="J12">
-        <v>0.07246954254083401</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>36.52018433333333</v>
-      </c>
-      <c r="N12">
-        <v>109.560553</v>
-      </c>
-      <c r="O12">
-        <v>0.20710333833547</v>
-      </c>
-      <c r="P12">
-        <v>0.2071033383354699</v>
-      </c>
-      <c r="Q12">
-        <v>4.711736795528445</v>
-      </c>
-      <c r="R12">
-        <v>42.405631159756</v>
-      </c>
-      <c r="S12">
-        <v>0.01500868418785108</v>
-      </c>
-      <c r="T12">
-        <v>0.01500868418785108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.1290173333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.387052</v>
-      </c>
-      <c r="I13">
-        <v>0.07246954254083401</v>
-      </c>
-      <c r="J13">
-        <v>0.07246954254083401</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.22727166666667</v>
-      </c>
-      <c r="N13">
-        <v>42.681815</v>
-      </c>
-      <c r="O13">
-        <v>0.08068183420648613</v>
-      </c>
-      <c r="P13">
-        <v>0.08068183420648613</v>
-      </c>
-      <c r="Q13">
-        <v>1.835564651042222</v>
-      </c>
-      <c r="R13">
-        <v>16.52008185938</v>
-      </c>
-      <c r="S13">
-        <v>0.005846975616299464</v>
-      </c>
-      <c r="T13">
-        <v>0.005846975616299464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.3660453333333333</v>
-      </c>
-      <c r="H14">
-        <v>1.098136</v>
-      </c>
-      <c r="I14">
-        <v>0.2056091005023131</v>
-      </c>
-      <c r="J14">
-        <v>0.2056091005023131</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>36.71344366666667</v>
-      </c>
-      <c r="N14">
-        <v>110.140331</v>
-      </c>
-      <c r="O14">
-        <v>0.2081992981130139</v>
-      </c>
-      <c r="P14">
-        <v>0.2081992981130138</v>
-      </c>
-      <c r="Q14">
-        <v>13.43878472477956</v>
-      </c>
-      <c r="R14">
-        <v>120.949062523016</v>
-      </c>
-      <c r="S14">
-        <v>0.04280767041022972</v>
-      </c>
-      <c r="T14">
-        <v>0.0428076704102297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.3660453333333333</v>
-      </c>
-      <c r="H15">
-        <v>1.098136</v>
-      </c>
-      <c r="I15">
-        <v>0.2056091005023131</v>
-      </c>
-      <c r="J15">
-        <v>0.2056091005023131</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>88.87708033333332</v>
-      </c>
-      <c r="N15">
-        <v>266.631241</v>
-      </c>
-      <c r="O15">
-        <v>0.5040155293450301</v>
-      </c>
-      <c r="P15">
-        <v>0.50401552934503</v>
-      </c>
-      <c r="Q15">
-        <v>32.53304049630844</v>
-      </c>
-      <c r="R15">
-        <v>292.797364466776</v>
-      </c>
-      <c r="S15">
-        <v>0.1036301796278288</v>
-      </c>
-      <c r="T15">
-        <v>0.1036301796278288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.3660453333333333</v>
-      </c>
-      <c r="H16">
-        <v>1.098136</v>
-      </c>
-      <c r="I16">
-        <v>0.2056091005023131</v>
-      </c>
-      <c r="J16">
-        <v>0.2056091005023131</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>36.52018433333333</v>
-      </c>
-      <c r="N16">
-        <v>109.560553</v>
-      </c>
-      <c r="O16">
-        <v>0.20710333833547</v>
-      </c>
-      <c r="P16">
-        <v>0.2071033383354699</v>
-      </c>
-      <c r="Q16">
-        <v>13.36804304768978</v>
-      </c>
-      <c r="R16">
-        <v>120.312387429208</v>
-      </c>
-      <c r="S16">
-        <v>0.0425823311061822</v>
-      </c>
-      <c r="T16">
-        <v>0.0425823311061822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.3660453333333333</v>
-      </c>
-      <c r="H17">
-        <v>1.098136</v>
-      </c>
-      <c r="I17">
-        <v>0.2056091005023131</v>
-      </c>
-      <c r="J17">
-        <v>0.2056091005023131</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>14.22727166666667</v>
-      </c>
-      <c r="N17">
-        <v>42.681815</v>
-      </c>
-      <c r="O17">
-        <v>0.08068183420648613</v>
-      </c>
-      <c r="P17">
-        <v>0.08068183420648613</v>
-      </c>
-      <c r="Q17">
-        <v>5.207826399648889</v>
-      </c>
-      <c r="R17">
-        <v>46.87043759684</v>
-      </c>
-      <c r="S17">
-        <v>0.01658891935807237</v>
-      </c>
-      <c r="T17">
-        <v>0.01658891935807237</v>
+        <v>0.004017667342288036</v>
       </c>
     </row>
   </sheetData>
